--- a/raw-data-prep/raw_data/Distraction_Assignment_AM.xlsx
+++ b/raw-data-prep/raw_data/Distraction_Assignment_AM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$60</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -30,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +154,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,6 +189,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,16 +365,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,7 +382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>124</v>
       </c>
@@ -385,7 +390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>125</v>
       </c>
@@ -393,7 +398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>126</v>
       </c>
@@ -401,7 +406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>127</v>
       </c>
@@ -409,7 +414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>128</v>
       </c>
@@ -417,7 +422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>129</v>
       </c>
@@ -425,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>131</v>
       </c>
@@ -433,7 +438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>130</v>
       </c>
@@ -441,7 +446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>132</v>
       </c>
@@ -449,7 +454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>133</v>
       </c>
@@ -457,7 +462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>134</v>
       </c>
@@ -465,7 +470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>135</v>
       </c>
@@ -473,7 +478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>137</v>
       </c>
@@ -481,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>136</v>
       </c>
@@ -489,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>138</v>
       </c>
@@ -497,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>139</v>
       </c>
@@ -505,7 +510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>140</v>
       </c>
@@ -513,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>142</v>
       </c>
@@ -521,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>141</v>
       </c>
@@ -529,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>143</v>
       </c>
@@ -537,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>144</v>
       </c>
@@ -545,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>145</v>
       </c>
@@ -553,7 +558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>146</v>
       </c>
@@ -561,7 +566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>147</v>
       </c>
@@ -569,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>148</v>
       </c>
@@ -577,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>149</v>
       </c>
@@ -585,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>150</v>
       </c>
@@ -593,7 +598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>152</v>
       </c>
@@ -601,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>151</v>
       </c>
@@ -609,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>153</v>
       </c>
@@ -617,7 +622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>154</v>
       </c>
@@ -625,7 +630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>155</v>
       </c>
@@ -633,7 +638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>156</v>
       </c>
@@ -641,7 +646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>157</v>
       </c>
@@ -649,7 +654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>158</v>
       </c>
@@ -657,7 +662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>159</v>
       </c>
@@ -665,7 +670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>160</v>
       </c>
@@ -673,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>161</v>
       </c>
@@ -681,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>162</v>
       </c>
@@ -689,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>163</v>
       </c>
@@ -697,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>164</v>
       </c>
@@ -705,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -713,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -721,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>166</v>
       </c>
@@ -729,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>168</v>
       </c>
@@ -737,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>169</v>
       </c>
@@ -745,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>170</v>
       </c>
@@ -753,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>171</v>
       </c>
@@ -761,7 +766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>172</v>
       </c>
@@ -769,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>173</v>
       </c>
@@ -777,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>174</v>
       </c>
@@ -785,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>175</v>
       </c>
@@ -793,7 +798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>176</v>
       </c>
@@ -801,7 +806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>177</v>
       </c>
@@ -809,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>170</v>
       </c>
@@ -817,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>179</v>
       </c>
@@ -825,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>180</v>
       </c>
@@ -833,7 +838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>181</v>
       </c>
@@ -841,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>182</v>
       </c>
@@ -850,29 +855,30 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B60"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
